--- a/May Tms.xlsx
+++ b/May Tms.xlsx
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="45">
   <si>
     <t>Prudence Technology Private Limited</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>20th May 2016</t>
+  </si>
+  <si>
+    <t>Indus reports bund</t>
   </si>
 </sst>
 </file>
@@ -956,7 +959,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1029,7 +1032,7 @@
         <v>8.5</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="G4" s="7">
         <v>250</v>

--- a/May Tms.xlsx
+++ b/May Tms.xlsx
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="44">
   <si>
     <t>Prudence Technology Private Limited</t>
   </si>
@@ -286,9 +286,6 @@
   </si>
   <si>
     <t>20th May 2016</t>
-  </si>
-  <si>
-    <t>Indus reports bund</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1029,7 @@
         <v>8.5</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7">
         <v>250</v>

--- a/May Tms.xlsx
+++ b/May Tms.xlsx
@@ -288,7 +288,7 @@
     <t>20th May 2016</t>
   </si>
   <si>
-    <t>Indus reports bund</t>
+    <t>Indus reports bund for Mblaze</t>
   </si>
 </sst>
 </file>
